--- a/Assets/08.Tables/Excel/Shield.xlsx
+++ b/Assets/08.Tables/Excel/Shield.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -29,10 +29,19 @@
     <t xml:space="preserve">defensive_power</t>
   </si>
   <si>
+    <t xml:space="preserve">equip_holder</t>
+  </si>
+  <si>
     <t xml:space="preserve">long</t>
   </si>
   <si>
     <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShieldHolder</t>
   </si>
   <si>
     <t xml:space="preserve">XXX / YY / ZZZZ</t>
@@ -350,12 +359,12 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.23"/>
@@ -369,19 +378,23 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -392,6 +405,9 @@
       </c>
       <c r="B3" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -445,31 +461,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/08.Tables/Excel/Shield.xlsx
+++ b/Assets/08.Tables/Excel/Shield.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -32,6 +32,9 @@
     <t xml:space="preserve">equip_holder</t>
   </si>
   <si>
+    <t xml:space="preserve">hand_holder</t>
+  </si>
+  <si>
     <t xml:space="preserve">long</t>
   </si>
   <si>
@@ -42,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">ShieldHolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeftShieldHolder</t>
   </si>
   <si>
     <t xml:space="preserve">XXX / YY / ZZZZ</t>
@@ -359,7 +365,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -381,21 +387,25 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
@@ -407,7 +417,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -461,31 +474,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
